--- a/01-MULTIPHASE/python/png/Summary.xlsx
+++ b/01-MULTIPHASE/python/png/Summary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\res\santos\unbs\gger\er\er01\USR\bfq9\2024-PHD\EDFM\01-MULTIPHASE\python\png\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71311D6-887C-474E-9406-5632D0367949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716A57D2-A669-44E7-8FEA-EBDFC2DA8C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NOVOS" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>label</t>
   </si>
@@ -100,12 +100,39 @@
   <si>
     <t>MAXIMUM RECOVERY FACTOR</t>
   </si>
+  <si>
+    <t>216.41454199034845</t>
+  </si>
+  <si>
+    <t>79.22068489866474</t>
+  </si>
+  <si>
+    <t>54.56536445329199</t>
+  </si>
+  <si>
+    <t>184.48620547857834</t>
+  </si>
+  <si>
+    <t>63.600736650569935</t>
+  </si>
+  <si>
+    <t>5.903611780638957</t>
+  </si>
+  <si>
+    <t>199.43849331845163</t>
+  </si>
+  <si>
+    <t>31.537047093247374</t>
+  </si>
+  <si>
+    <t>46.17924973768033</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +144,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,12 +187,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -276,7 +313,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
+              <c:f>NOVOS!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -297,7 +334,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>NOVOS!$A$15:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -314,25 +351,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$B$17</c:f>
+              <c:f>NOVOS!$B$15:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>51.850987021734987</c:v>
+                  <c:v>47.331151138437079</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.181380795786922</c:v>
+                  <c:v>56.720933233311968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.462832990425383</c:v>
+                  <c:v>54.459500287020447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B825-4A13-8CDF-1AA51E590515}"/>
+              <c16:uniqueId val="{00000000-D689-46D8-AFC4-382371213CE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -341,7 +378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$14</c:f>
+              <c:f>NOVOS!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -362,7 +399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>NOVOS!$A$15:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -379,25 +416,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$15:$C$17</c:f>
+              <c:f>NOVOS!$C$15:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>48.016866900326207</c:v>
+                  <c:v>39.689237331590618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.001410705216898</c:v>
+                  <c:v>73.790457139228181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.058640797176807</c:v>
+                  <c:v>54.076685325373411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B825-4A13-8CDF-1AA51E590515}"/>
+              <c16:uniqueId val="{00000001-D689-46D8-AFC4-382371213CE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -406,7 +443,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$14</c:f>
+              <c:f>NOVOS!$D$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -427,7 +464,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>NOVOS!$A$15:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -444,25 +481,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$15:$D$17</c:f>
+              <c:f>NOVOS!$D$15:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.332891971356136</c:v>
+                  <c:v>6.6744432216392706</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.937553654801199</c:v>
+                  <c:v>49.5273896167839</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.958070524641172</c:v>
+                  <c:v>55.650649253257669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B825-4A13-8CDF-1AA51E590515}"/>
+              <c16:uniqueId val="{00000002-D689-46D8-AFC4-382371213CE5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,7 +787,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>NOVOS!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -771,7 +808,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$24</c:f>
+              <c:f>NOVOS!$A$22:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -788,25 +825,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22:$B$24</c:f>
+              <c:f>NOVOS!$B$22:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>151.106205476535</c:v>
+                  <c:v>184.486205478578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.91318686216201</c:v>
+                  <c:v>216.414541990348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152.20570088478499</c:v>
+                  <c:v>199.43849331845101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-716A-4E03-B395-8F0340FA53FF}"/>
+              <c16:uniqueId val="{00000000-0CA2-4AB6-A384-F93D8D2C1794}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -815,7 +852,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$21</c:f>
+              <c:f>NOVOS!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -836,7 +873,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$24</c:f>
+              <c:f>NOVOS!$A$22:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -853,25 +890,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$22:$C$24</c:f>
+              <c:f>NOVOS!$C$22:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>47.622227375624803</c:v>
+                  <c:v>63.6007366505699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.962017719622601</c:v>
+                  <c:v>79.2206848986647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.679330359504501</c:v>
+                  <c:v>31.537047093247299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-716A-4E03-B395-8F0340FA53FF}"/>
+              <c16:uniqueId val="{00000001-0CA2-4AB6-A384-F93D8D2C1794}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -880,7 +917,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$21</c:f>
+              <c:f>NOVOS!$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -901,7 +938,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$22:$A$24</c:f>
+              <c:f>NOVOS!$A$22:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -918,25 +955,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$22:$D$24</c:f>
+              <c:f>NOVOS!$D$22:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.6352371085297097</c:v>
+                  <c:v>5.9036117806389496</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.954358544229102</c:v>
+                  <c:v>54.565364453291899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.5904293710561</c:v>
+                  <c:v>46.179249737680301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-716A-4E03-B395-8F0340FA53FF}"/>
+              <c16:uniqueId val="{00000002-0CA2-4AB6-A384-F93D8D2C1794}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2246,14 +2283,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Gráfico 8">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D89086F0-4322-80C6-0DF0-A11FB0AAD615}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E13329-F5DA-4CF3-B0FE-D728BD25DA2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2282,14 +2321,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Gráfico 9">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF80C71C-5D25-FC49-D8E6-3F280327B0A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF5FD78-DE19-4857-845C-5DB829DB6B2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2590,24 +2631,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED373D7-7FF7-4C60-B6B1-0794B7E95B8E}">
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2622,289 +2665,454 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>42.120920530524607</v>
-      </c>
-      <c r="E2">
-        <v>183.91318686216201</v>
-      </c>
-      <c r="F2">
-        <v>63.181380795786922</v>
+      <c r="D2" s="3">
+        <v>37.813955488874647</v>
+      </c>
+      <c r="E2" s="3">
+        <v>216.414541990348</v>
+      </c>
+      <c r="F2" s="3">
+        <v>56.720933233311968</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="3">
+        <v>37.813955488874647</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="3">
+        <v>56.720933233311968</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>50.000940470144599</v>
-      </c>
-      <c r="E3">
-        <v>58.962017719622601</v>
-      </c>
-      <c r="F3">
-        <v>75.001410705216898</v>
+      <c r="D3" s="3">
+        <v>49.193638092818787</v>
+      </c>
+      <c r="E3" s="3">
+        <v>79.2206848986647</v>
+      </c>
+      <c r="F3" s="3">
+        <v>73.790457139228181</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3">
+        <v>49.193638092818787</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="U3" s="3">
+        <v>73.790457139228181</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>31.958369103200798</v>
-      </c>
-      <c r="E4">
-        <v>43.954358544229102</v>
-      </c>
-      <c r="F4">
-        <v>47.937553654801199</v>
+      <c r="D4" s="3">
+        <v>33.018259744522602</v>
+      </c>
+      <c r="E4" s="3">
+        <v>54.565364453291899</v>
+      </c>
+      <c r="F4" s="3">
+        <v>49.5273896167839</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="3">
+        <v>33.018259744522602</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="3">
+        <v>49.5273896167839</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>34.567324681156663</v>
-      </c>
-      <c r="E5">
-        <v>151.106205476535</v>
-      </c>
-      <c r="F5">
-        <v>51.850987021734987</v>
+      <c r="D5" s="3">
+        <v>31.55410075895805</v>
+      </c>
+      <c r="E5" s="3">
+        <v>184.486205478578</v>
+      </c>
+      <c r="F5" s="3">
+        <v>47.331151138437079</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="S5" s="3">
+        <v>31.55410075895805</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="3">
+        <v>47.331151138437079</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>32.011244600217474</v>
-      </c>
-      <c r="E6">
-        <v>47.622227375624803</v>
-      </c>
-      <c r="F6">
-        <v>48.016866900326207</v>
+      <c r="D6" s="3">
+        <v>26.45949155439375</v>
+      </c>
+      <c r="E6" s="3">
+        <v>63.6007366505699</v>
+      </c>
+      <c r="F6" s="3">
+        <v>39.689237331590618</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>4</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="3">
+        <v>26.45949155439375</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="3">
+        <v>39.689237331590618</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>4.2219279809040904</v>
-      </c>
-      <c r="E7">
-        <v>4.6352371085297097</v>
-      </c>
-      <c r="F7">
-        <v>6.332891971356136</v>
+      <c r="D7" s="3">
+        <v>4.4496288144261804</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.9036117806389496</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6.6744432216392706</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="3">
+        <v>4.4496288144261804</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" s="3">
+        <v>6.6744432216392706</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>36.97522199361692</v>
-      </c>
-      <c r="E8">
-        <v>152.20570088478499</v>
-      </c>
-      <c r="F8">
-        <v>55.462832990425383</v>
+      <c r="D8" s="3">
+        <v>36.306333524680298</v>
+      </c>
+      <c r="E8" s="3">
+        <v>199.43849331845101</v>
+      </c>
+      <c r="F8" s="3">
+        <v>54.459500287020447</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>6</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="3">
+        <v>36.306333524680298</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="3">
+        <v>54.459500287020447</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>34.705760531451212</v>
-      </c>
-      <c r="E9">
-        <v>25.679330359504501</v>
-      </c>
-      <c r="F9">
-        <v>52.058640797176807</v>
+      <c r="D9" s="3">
+        <v>36.051123550248938</v>
+      </c>
+      <c r="E9" s="3">
+        <v>31.537047093247299</v>
+      </c>
+      <c r="F9" s="3">
+        <v>54.076685325373411</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>7</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="3">
+        <v>36.051123550248938</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="3">
+        <v>54.076685325373411</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>35.305380349760767</v>
-      </c>
-      <c r="E10">
-        <v>29.5904293710561</v>
-      </c>
-      <c r="F10">
-        <v>52.958070524641172</v>
+      <c r="D10" s="3">
+        <v>37.10043283550511</v>
+      </c>
+      <c r="E10" s="3">
+        <v>46.179249737680301</v>
+      </c>
+      <c r="F10" s="3">
+        <v>55.650649253257669</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="3">
+        <v>37.10043283550511</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" s="3">
+        <v>55.650649253257669</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>51.850987021734987</v>
-      </c>
-      <c r="C15">
-        <v>48.016866900326207</v>
-      </c>
-      <c r="D15">
-        <v>6.332891971356136</v>
+      <c r="B15" s="3">
+        <f>+F5</f>
+        <v>47.331151138437079</v>
+      </c>
+      <c r="C15" s="3">
+        <f>+F6</f>
+        <v>39.689237331590618</v>
+      </c>
+      <c r="D15" s="3">
+        <f>+F7</f>
+        <v>6.6744432216392706</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
-        <v>63.181380795786922</v>
-      </c>
-      <c r="C16">
-        <v>75.001410705216898</v>
-      </c>
-      <c r="D16">
-        <v>47.937553654801199</v>
+      <c r="B16" s="3">
+        <f>+F2</f>
+        <v>56.720933233311968</v>
+      </c>
+      <c r="C16" s="3">
+        <f>+F3</f>
+        <v>73.790457139228181</v>
+      </c>
+      <c r="D16" s="3">
+        <f>+F4</f>
+        <v>49.5273896167839</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>55.462832990425383</v>
-      </c>
-      <c r="C17">
-        <v>52.058640797176807</v>
-      </c>
-      <c r="D17">
-        <v>52.958070524641172</v>
+      <c r="B17" s="3">
+        <f>+F8</f>
+        <v>54.459500287020447</v>
+      </c>
+      <c r="C17" s="3">
+        <f>+F9</f>
+        <v>54.076685325373411</v>
+      </c>
+      <c r="D17" s="3">
+        <f>+F10</f>
+        <v>55.650649253257669</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22">
-        <v>151.106205476535</v>
-      </c>
-      <c r="C22">
-        <v>47.622227375624803</v>
-      </c>
-      <c r="D22">
-        <v>4.6352371085297097</v>
+      <c r="B22" s="3">
+        <f>+E5</f>
+        <v>184.486205478578</v>
+      </c>
+      <c r="C22" s="3">
+        <f>+E6</f>
+        <v>63.6007366505699</v>
+      </c>
+      <c r="D22" s="3">
+        <f>+E7</f>
+        <v>5.9036117806389496</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23">
-        <v>183.91318686216201</v>
-      </c>
-      <c r="C23">
-        <v>58.962017719622601</v>
-      </c>
-      <c r="D23">
-        <v>43.954358544229102</v>
+      <c r="B23" s="3">
+        <f>+E2</f>
+        <v>216.414541990348</v>
+      </c>
+      <c r="C23" s="3">
+        <f>+E3</f>
+        <v>79.2206848986647</v>
+      </c>
+      <c r="D23" s="3">
+        <f>+E4</f>
+        <v>54.565364453291899</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24">
-        <v>152.20570088478499</v>
-      </c>
-      <c r="C24">
-        <v>25.679330359504501</v>
-      </c>
-      <c r="D24">
-        <v>29.5904293710561</v>
+      <c r="B24" s="3">
+        <f>+E8</f>
+        <v>199.43849331845101</v>
+      </c>
+      <c r="C24" s="3">
+        <f>+E9</f>
+        <v>31.537047093247299</v>
+      </c>
+      <c r="D24" s="3">
+        <f>+E10</f>
+        <v>46.179249737680301</v>
       </c>
     </row>
   </sheetData>
